--- a/biology/Botanique/Part_des_anges/Part_des_anges.xlsx
+++ b/biology/Botanique/Part_des_anges/Part_des_anges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La part des anges est la partie du volume d'un alcool qui s'évapore pendant son vieillissement en fût. De façon plus générale, la freinte désigne la perte de volume subie par un produit lors de sa fabrication ou de son transport.
 </t>
@@ -511,12 +523,14 @@
           <t>Précision</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Notamment présente dans les chais d'armagnac ou de cognac, l'expression aurait pour origine l'alchimie qui désignait par anges les substances volatiles.
 Pendant toute la durée du vieillissement, le degré alcoolique va ainsi progressivement diminuer par évaporation. C'est ce qui rapproche naturellement et progressivement le spiritueux concerné de 40 % vol.
 Dans la région de Cognac, cela représente l’équivalent de plus de vingt millions de bouteilles par an.
-Ces vapeurs d’alcool nourrissent un champignon microscopique, Baudoinia compniacensis[1]. Il recouvre, en les noircissant, les pierres des murs de la région, leur conférant ainsi une couleur caractéristique. Cette coloration servait autrefois aux autorités locales pour repérer les productions clandestines ; on raconte que les chais de Cognac furent identifiés et bombardés pendant la Seconde Guerre mondiale à cause de ce phénomène [réf. nécessaire].
+Ces vapeurs d’alcool nourrissent un champignon microscopique, Baudoinia compniacensis. Il recouvre, en les noircissant, les pierres des murs de la région, leur conférant ainsi une couleur caractéristique. Cette coloration servait autrefois aux autorités locales pour repérer les productions clandestines ; on raconte que les chais de Cognac furent identifiés et bombardés pendant la Seconde Guerre mondiale à cause de ce phénomène [réf. nécessaire].
 </t>
         </is>
       </c>
